--- a/output/DEG/Filter_DEG_Run32_Day8_TIM3p_WT_KO.xlsx
+++ b/output/DEG/Filter_DEG_Run32_Day8_TIM3p_WT_KO.xlsx
@@ -512,19 +512,19 @@
         <v>139.565295173131</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.63190979506396</v>
+        <v>-1.63190989412726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.376329548120764</v>
+        <v>0.376351439199373</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.3363849668809</v>
+        <v>-4.33613299738906</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0000144845174326629</v>
+        <v>0.0000145011223854152</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00427605675423866</v>
+        <v>0.004280958796761</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -535,19 +535,19 @@
         <v>281.936688216907</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.35634423097423</v>
+        <v>-1.35634275007098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.16432351648355</v>
+        <v>0.164297922019916</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.25410908918817</v>
+        <v>-8.25538590747705</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000000000000000153039521828543</v>
+        <v>0.000000000000000151412204669717</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000000000000768054346883516</v>
+        <v>0.000000000000759887384502422</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -558,19 +558,19 @@
         <v>314.657570907288</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.94679699019976</v>
+        <v>-2.94679643856939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.440055127328727</v>
+        <v>0.440101590221266</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.69642689562043</v>
+        <v>-6.69571867960725</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0000000000213577215334373</v>
+        <v>0.000000000021461424338273</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0000000459374079153474</v>
+        <v>0.0000000461604578338626</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -581,19 +581,19 @@
         <v>437.892407250371</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.62032227178981</v>
+        <v>-1.62032219173922</v>
       </c>
       <c r="C5" t="n">
-        <v>0.348756854763456</v>
+        <v>0.348781598260943</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.64599404903106</v>
+        <v>-4.64566422029803</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00000338442758977174</v>
+        <v>0.00000338983988562143</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00149870417034128</v>
+        <v>0.00150110086229165</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -604,19 +604,19 @@
         <v>120.974116377366</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.24134130671626</v>
+        <v>-1.24134152870974</v>
       </c>
       <c r="C6" t="n">
-        <v>0.251095168570593</v>
+        <v>0.251082177019885</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.94370845039684</v>
+        <v>-4.94396513302269</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000000766503087826172</v>
+        <v>0.00000076549400353011</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000412159660368245</v>
+        <v>0.000411617061326762</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -627,19 +627,19 @@
         <v>66.9959495097707</v>
       </c>
       <c r="B7" t="n">
-        <v>1.58882316561201</v>
+        <v>1.588823223888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.348760408098181</v>
+        <v>0.348761029744535</v>
       </c>
       <c r="D7" t="n">
-        <v>4.55562939118002</v>
+        <v>4.55562143812858</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00000522289530302774</v>
+        <v>0.00000522309293635477</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00215596806320691</v>
+        <v>0.00215596806320689</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -650,19 +650,19 @@
         <v>119.193795648993</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.90772557517773</v>
+        <v>-1.90772500328651</v>
       </c>
       <c r="C8" t="n">
-        <v>0.439071889887095</v>
+        <v>0.439109029584707</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.34490483020513</v>
+        <v>-4.3445360371905</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0000139336058128777</v>
+        <v>0.0000139570331069236</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00419568738237373</v>
+        <v>0.00420274180915683</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -673,19 +673,19 @@
         <v>1035.19418310151</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.44823365409308</v>
+        <v>-1.44823364645923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.241581587981472</v>
+        <v>0.241582286064411</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.99480145069726</v>
+        <v>-5.99478409635177</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000000203734207681819</v>
+        <v>0.00000000203755965260201</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00000235955556219805</v>
+        <v>0.00000235980754842892</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -696,19 +696,19 @@
         <v>522.345418746051</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.60356834835043</v>
+        <v>-1.60356836088316</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214982644555652</v>
+        <v>0.214974356518554</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.45905955182962</v>
+        <v>-7.4593471837873</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0000000000000871422176599593</v>
+        <v>0.00000000000008695221192634</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000000000218668871514725</v>
+        <v>0.000000000218192083793829</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -719,19 +719,19 @@
         <v>5045.7942381138</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.01348280924038</v>
+        <v>-1.01348281889532</v>
       </c>
       <c r="C11" t="n">
-        <v>0.258120523664871</v>
+        <v>0.258127047586793</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.92639374370798</v>
+        <v>-3.92629454514852</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0000862289584789781</v>
+        <v>0.0000862645105444369</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0170932395102297</v>
+        <v>0.0170894535625927</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -742,19 +742,19 @@
         <v>110.402422808225</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.04148515298188</v>
+        <v>-1.04147988658406</v>
       </c>
       <c r="C12" t="n">
-        <v>0.180677608480137</v>
+        <v>0.180639932696432</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.76432886035446</v>
+        <v>-5.76550196314724</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0000000081983419904311</v>
+        <v>0.00000000814151543858835</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00000771463981299567</v>
+        <v>0.00000766116602771164</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -765,19 +765,19 @@
         <v>1405.52774583233</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.33955832396082</v>
+        <v>-1.33955827239898</v>
       </c>
       <c r="C13" t="n">
-        <v>0.299157111559967</v>
+        <v>0.299172832705637</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.47777529665144</v>
+        <v>-4.47753982299926</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00000754249295702403</v>
+        <v>0.00000755081455570635</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00276975058441351</v>
+        <v>0.00277280643782231</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -788,19 +788,19 @@
         <v>140.959756272321</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.1853019506091</v>
+        <v>-1.18530194099526</v>
       </c>
       <c r="C14" t="n">
-        <v>0.292783594861687</v>
+        <v>0.292784479057877</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.04838922470722</v>
+        <v>-4.04837696591475</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0000515713325521446</v>
+        <v>0.0000515740332346349</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0117645148925013</v>
+        <v>0.0117651309754646</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -811,19 +811,19 @@
         <v>452.186895382732</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.07909353424101</v>
+        <v>-1.07909394962812</v>
       </c>
       <c r="C15" t="n">
-        <v>0.204011114608548</v>
+        <v>0.203999656550554</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.28938600385353</v>
+        <v>-5.28968512925271</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000000122727643237371</v>
+        <v>0.000000122527108209975</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0000923893698290932</v>
+        <v>0.0000922384070604693</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -834,19 +834,19 @@
         <v>107.546087214258</v>
       </c>
       <c r="B16" t="n">
-        <v>1.07831556771209</v>
+        <v>1.07831751647532</v>
       </c>
       <c r="C16" t="n">
-        <v>0.177240131488666</v>
+        <v>0.177194952408177</v>
       </c>
       <c r="D16" t="n">
-        <v>6.08392443999651</v>
+        <v>6.08548664519159</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0000000011727588974183</v>
+        <v>0.00000000116138005404124</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00000160518708723</v>
+        <v>0.00000158961255396772</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -857,19 +857,19 @@
         <v>144.815358131759</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.15268247783702</v>
+        <v>-1.15268260947424</v>
       </c>
       <c r="C17" t="n">
-        <v>0.234179797518365</v>
+        <v>0.234176510717812</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.92221143775916</v>
+        <v>-4.92228108592519</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000000855716869194126</v>
+        <v>0.000000855412292949811</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000429455772752892</v>
+        <v>0.000429302916088412</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
@@ -880,19 +880,19 @@
         <v>283.41034468437</v>
       </c>
       <c r="B18" t="n">
-        <v>1.27464744875584</v>
+        <v>1.27464828373868</v>
       </c>
       <c r="C18" t="n">
-        <v>0.338193413073734</v>
+        <v>0.338214173997842</v>
       </c>
       <c r="D18" t="n">
-        <v>3.76898957661822</v>
+        <v>3.76876068992549</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000163909731575985</v>
+        <v>0.000164060083868864</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0265357518129895</v>
+        <v>0.0265600927175228</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -903,19 +903,19 @@
         <v>59.1057084485341</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.0336440525119</v>
+        <v>-2.03364265983309</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5270703127085</v>
+        <v>0.527117562945501</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.85839233111317</v>
+        <v>-3.85804382701501</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000114135328395249</v>
+        <v>0.000114298155773964</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0204573988609389</v>
+        <v>0.0204865837301523</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -926,19 +926,19 @@
         <v>141.237019254955</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.01231166299237</v>
+        <v>-1.01231252706982</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234253676460213</v>
+        <v>0.23423772199123</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.32143340625141</v>
+        <v>-4.3217314378925</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0000155018839731015</v>
+        <v>0.0000154809551702853</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00434011479614918</v>
+        <v>0.00432848243844727</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -949,19 +949,19 @@
         <v>58.9240243611134</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.29983534204656</v>
+        <v>-1.2998362358837</v>
       </c>
       <c r="C21" t="n">
-        <v>0.292169516009681</v>
+        <v>0.292149183042641</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.44890815372912</v>
+        <v>-4.44922084787751</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00000863079109647613</v>
+        <v>0.00000861823630871352</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00309393311306059</v>
+        <v>0.00308943252057121</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -972,19 +972,19 @@
         <v>167.25372833397</v>
       </c>
       <c r="B22" t="n">
-        <v>7.49574097361222</v>
+        <v>7.49574097361223</v>
       </c>
       <c r="C22" t="n">
         <v>1.64646870221189</v>
       </c>
       <c r="D22" t="n">
-        <v>4.55261673880733</v>
+        <v>4.55261673880734</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00000529827433173856</v>
+        <v>0.00000529827433173849</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00215596806320691</v>
+        <v>0.00215596806320689</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -995,19 +995,19 @@
         <v>370.671586162807</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.28503389101527</v>
+        <v>-1.28503409099958</v>
       </c>
       <c r="C23" t="n">
-        <v>0.32724876062055</v>
+        <v>0.327267527418009</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.92678000851249</v>
+        <v>-3.92655544269214</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0000860906557564078</v>
+        <v>0.0000861710363757061</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0170932395102297</v>
+        <v>0.0170894535625927</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -1018,19 +1018,19 @@
         <v>226.588120986183</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.37568650430151</v>
+        <v>-1.37568665210752</v>
       </c>
       <c r="C24" t="n">
-        <v>0.374052457840868</v>
+        <v>0.37408012598569</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.67779030845658</v>
+        <v>-3.67751868261547</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000235263240897268</v>
+        <v>0.000235513830914385</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0343895471354297</v>
+        <v>0.034426177070359</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1041,19 +1041,19 @@
         <v>131.31063081573</v>
       </c>
       <c r="B25" t="n">
-        <v>2.62858520127994</v>
+        <v>2.62858998443568</v>
       </c>
       <c r="C25" t="n">
-        <v>0.464680436370231</v>
+        <v>0.464741305694865</v>
       </c>
       <c r="D25" t="n">
-        <v>5.656758915466</v>
+        <v>5.6560283155927</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0000000154258202585677</v>
+        <v>0.0000000154915920778827</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0000136618323419409</v>
+        <v>0.0000137200829602707</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1064,19 +1064,19 @@
         <v>74.7316629402021</v>
       </c>
       <c r="B26" t="n">
-        <v>2.13947433586566</v>
+        <v>2.13947173668205</v>
       </c>
       <c r="C26" t="n">
-        <v>0.268354924989638</v>
+        <v>0.268332388978483</v>
       </c>
       <c r="D26" t="n">
-        <v>7.97255476473283</v>
+        <v>7.97321465674279</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00000000000000155427322978198</v>
+        <v>0.00000000000000154599307390871</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0000000000046802275495195</v>
+        <v>0.00000000000465529434415389</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -1087,19 +1087,19 @@
         <v>165.082189614755</v>
       </c>
       <c r="B27" t="n">
-        <v>1.37457294615879</v>
+        <v>1.37457298343047</v>
       </c>
       <c r="C27" t="n">
-        <v>0.21972355026592</v>
+        <v>0.219706399277337</v>
       </c>
       <c r="D27" t="n">
-        <v>6.25591997077791</v>
+        <v>6.25640849766664</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000000000395179367695476</v>
+        <v>0.000000000393944061791139</v>
       </c>
       <c r="F27" t="n">
-        <v>0.000000661091173335898</v>
+        <v>0.000000659024643814154</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -1110,19 +1110,19 @@
         <v>88.3016324525166</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.43002456598958</v>
+        <v>-1.4300251279996</v>
       </c>
       <c r="C28" t="n">
-        <v>0.289706620383381</v>
+        <v>0.289697245546104</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.93611283061865</v>
+        <v>-4.93627450721487</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000000796950123238715</v>
+        <v>0.000000796290074761562</v>
       </c>
       <c r="F28" t="n">
-        <v>0.000413754519154555</v>
+        <v>0.000413411840193451</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -1133,19 +1133,19 @@
         <v>69.2303962757121</v>
       </c>
       <c r="B29" t="n">
-        <v>1.19131341206854</v>
+        <v>1.19130997794583</v>
       </c>
       <c r="C29" t="n">
-        <v>0.232571293197726</v>
+        <v>0.23253678887264</v>
       </c>
       <c r="D29" t="n">
-        <v>5.1223579474863</v>
+        <v>5.12310324624938</v>
       </c>
       <c r="E29" t="n">
-        <v>0.000000301738397400944</v>
+        <v>0.000000300547668919883</v>
       </c>
       <c r="F29" t="n">
-        <v>0.000216332062441363</v>
+        <v>0.000215478366821798</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -1156,19 +1156,19 @@
         <v>507.289128635703</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.02680517468159</v>
+        <v>-1.02680552312415</v>
       </c>
       <c r="C30" t="n">
-        <v>0.204273013564425</v>
+        <v>0.20426241548003</v>
       </c>
       <c r="D30" t="n">
-        <v>-5.02663154943741</v>
+        <v>-5.02689406032477</v>
       </c>
       <c r="E30" t="n">
-        <v>0.000000499170104190943</v>
+        <v>0.000000498487551529602</v>
       </c>
       <c r="F30" t="n">
-        <v>0.000313146045362451</v>
+        <v>0.000312717857326237</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1179,19 +1179,19 @@
         <v>274.760021023354</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.15717730424055</v>
+        <v>-1.15717732423933</v>
       </c>
       <c r="C31" t="n">
-        <v>0.254615381672537</v>
+        <v>0.254613362874554</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.54480517492383</v>
+        <v>-4.54484128866979</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0000054986088918034</v>
+        <v>0.00000549766625253847</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0021786067230261</v>
+        <v>0.00217823323942682</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -1202,19 +1202,19 @@
         <v>155.502072040873</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.02392724243382</v>
+        <v>-1.02392661796103</v>
       </c>
       <c r="C32" t="n">
-        <v>0.231663531184477</v>
+        <v>0.231649245933928</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.41988964425501</v>
+        <v>-4.42015951242542</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00000987513169240356</v>
+        <v>0.00000986280719515315</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00345767401769367</v>
+        <v>0.00345335872395874</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -1225,19 +1225,19 @@
         <v>67.3911740227352</v>
       </c>
       <c r="B33" t="n">
-        <v>1.02183123385669</v>
+        <v>1.02182974976917</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236728554272444</v>
+        <v>0.236695711984775</v>
       </c>
       <c r="D33" t="n">
-        <v>4.3164680196572</v>
+        <v>4.31706067338854</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0000158545638807256</v>
+        <v>0.0000158120705442747</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00434011479614918</v>
+        <v>0.00432848243844727</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -1248,19 +1248,19 @@
         <v>938.673677613704</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.13481149798867</v>
+        <v>-1.13481150507729</v>
       </c>
       <c r="C34" t="n">
-        <v>0.320239678194999</v>
+        <v>0.320260168941147</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.5436317710064</v>
+        <v>-3.54340506604127</v>
       </c>
       <c r="E34" t="n">
-        <v>0.000394656035394499</v>
+        <v>0.00039499549400244</v>
       </c>
       <c r="F34" t="n">
-        <v>0.047918881200803</v>
+        <v>0.0479600980459737</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1271,19 +1271,19 @@
         <v>250.503746224053</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.08234968691628</v>
+        <v>-1.08234934698243</v>
       </c>
       <c r="C35" t="n">
-        <v>0.21887312475848</v>
+        <v>0.218860608405867</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.94510090314022</v>
+        <v>-4.94538215381023</v>
       </c>
       <c r="E35" t="n">
-        <v>0.000000761044342053148</v>
+        <v>0.000000759946327659539</v>
       </c>
       <c r="F35" t="n">
-        <v>0.000412159660368245</v>
+        <v>0.000411617061326762</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -1294,19 +1294,19 @@
         <v>255.82509196065</v>
       </c>
       <c r="B36" t="n">
-        <v>1.21333770533031</v>
+        <v>1.21333749240025</v>
       </c>
       <c r="C36" t="n">
-        <v>0.201783009646251</v>
+        <v>0.201767101641471</v>
       </c>
       <c r="D36" t="n">
-        <v>6.01308161404389</v>
+        <v>6.01355465053112</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00000000182029333391904</v>
+        <v>0.00000000181498703506128</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00000228386136962376</v>
+        <v>0.00000227720373332355</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -1317,19 +1317,19 @@
         <v>227.98505088591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.16866664343497</v>
+        <v>1.16866816731873</v>
       </c>
       <c r="C37" t="n">
-        <v>0.189532490939389</v>
+        <v>0.189511167334993</v>
       </c>
       <c r="D37" t="n">
-        <v>6.16604909080578</v>
+        <v>6.16675092952655</v>
       </c>
       <c r="E37" t="n">
-        <v>0.000000000700173555296546</v>
+        <v>0.000000000697074246686327</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00000105418130485448</v>
+        <v>0.00000104951498581093</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -1340,19 +1340,19 @@
         <v>486.436065823446</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.54100627222176</v>
+        <v>-1.54100616336134</v>
       </c>
       <c r="C38" t="n">
-        <v>0.341120431222756</v>
+        <v>0.341143674949919</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.51748453382864</v>
+        <v>-4.51717641720183</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00000625785972399922</v>
+        <v>0.0000062669691077204</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00241585476934698</v>
+        <v>0.00241937145861124</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -1363,19 +1363,19 @@
         <v>481.779716598369</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.46229471785778</v>
+        <v>-1.46229451754072</v>
       </c>
       <c r="C39" t="n">
-        <v>0.401814399196362</v>
+        <v>0.401853199185281</v>
       </c>
       <c r="D39" t="n">
-        <v>-3.63922925804154</v>
+        <v>-3.63887738235102</v>
       </c>
       <c r="E39" t="n">
-        <v>0.000273455270863741</v>
+        <v>0.0002738291331149</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0377719500745366</v>
+        <v>0.0378235910842013</v>
       </c>
       <c r="G39" t="s">
         <v>44</v>
@@ -1386,19 +1386,19 @@
         <v>54.8695341120823</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.81067407823673</v>
+        <v>-1.81067359782906</v>
       </c>
       <c r="C40" t="n">
-        <v>0.465735411401387</v>
+        <v>0.465765878465489</v>
       </c>
       <c r="D40" t="n">
-        <v>-3.88777411790195</v>
+        <v>-3.8875187761596</v>
       </c>
       <c r="E40" t="n">
-        <v>0.000101167706596184</v>
+        <v>0.000101274155950972</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0192807720317994</v>
+        <v>0.0193010593923776</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -1409,19 +1409,19 @@
         <v>371.167355804743</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.24409989343075</v>
+        <v>-1.24409954428466</v>
       </c>
       <c r="C41" t="n">
-        <v>0.344807261459121</v>
+        <v>0.344830790169355</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.60810235888332</v>
+        <v>-3.60785515607134</v>
       </c>
       <c r="E41" t="n">
-        <v>0.000308444805507033</v>
+        <v>0.000308738757863268</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0408511727243747</v>
+        <v>0.0407800402751629</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
